--- a/Code/Results/Cases/Case_5_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_82/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022896818592955</v>
+        <v>1.075347494238984</v>
       </c>
       <c r="D2">
-        <v>1.038491900466584</v>
+        <v>1.074379477558459</v>
       </c>
       <c r="E2">
-        <v>1.034535610651112</v>
+        <v>1.078507792967301</v>
       </c>
       <c r="F2">
-        <v>1.043442017631606</v>
+        <v>1.087576891009373</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04977397582132</v>
+        <v>1.046326922860092</v>
       </c>
       <c r="J2">
-        <v>1.044413610928615</v>
+        <v>1.08025241187971</v>
       </c>
       <c r="K2">
-        <v>1.049439815026936</v>
+        <v>1.077068845344237</v>
       </c>
       <c r="L2">
-        <v>1.045533896514129</v>
+        <v>1.081186282913324</v>
       </c>
       <c r="M2">
-        <v>1.054327578293615</v>
+        <v>1.090231797435665</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031437866986055</v>
+        <v>1.077035760507895</v>
       </c>
       <c r="D3">
-        <v>1.045206738441854</v>
+        <v>1.075711047986397</v>
       </c>
       <c r="E3">
-        <v>1.041865056340945</v>
+        <v>1.079997171536835</v>
       </c>
       <c r="F3">
-        <v>1.05099150493494</v>
+        <v>1.089111649988355</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052205315212395</v>
+        <v>1.046708783593401</v>
       </c>
       <c r="J3">
-        <v>1.051106708394792</v>
+        <v>1.081596655948687</v>
       </c>
       <c r="K3">
-        <v>1.055292106883698</v>
+        <v>1.078216266905026</v>
       </c>
       <c r="L3">
-        <v>1.051988886712434</v>
+        <v>1.082491921752738</v>
       </c>
       <c r="M3">
-        <v>1.061011004860697</v>
+        <v>1.09158443268365</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036787946715083</v>
+        <v>1.078126363441433</v>
       </c>
       <c r="D4">
-        <v>1.049414661487301</v>
+        <v>1.076570790845502</v>
       </c>
       <c r="E4">
-        <v>1.046461796285732</v>
+        <v>1.080959382884948</v>
       </c>
       <c r="F4">
-        <v>1.0557264948086</v>
+        <v>1.090103217238502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053714702141129</v>
+        <v>1.046953668928188</v>
       </c>
       <c r="J4">
-        <v>1.055295233584614</v>
+        <v>1.082464277786314</v>
       </c>
       <c r="K4">
-        <v>1.058951146335661</v>
+        <v>1.078956307803066</v>
       </c>
       <c r="L4">
-        <v>1.056030031910316</v>
+        <v>1.08333472572961</v>
       </c>
       <c r="M4">
-        <v>1.065195840072903</v>
+        <v>1.092457643699516</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038997457536984</v>
+        <v>1.07858442836955</v>
       </c>
       <c r="D5">
-        <v>1.051152772509691</v>
+        <v>1.076931786110254</v>
       </c>
       <c r="E5">
-        <v>1.048361422738099</v>
+        <v>1.081363542114098</v>
       </c>
       <c r="F5">
-        <v>1.057683309457402</v>
+        <v>1.090519715901063</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054334722640384</v>
+        <v>1.047056093813832</v>
       </c>
       <c r="J5">
-        <v>1.057023998062258</v>
+        <v>1.082828509117821</v>
       </c>
       <c r="K5">
-        <v>1.060460546462508</v>
+        <v>1.079266849327885</v>
       </c>
       <c r="L5">
-        <v>1.057698343036336</v>
+        <v>1.083688562069232</v>
       </c>
       <c r="M5">
-        <v>1.066923626533549</v>
+        <v>1.092824262657341</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039366189511999</v>
+        <v>1.078661314901922</v>
       </c>
       <c r="D6">
-        <v>1.051442849187946</v>
+        <v>1.076992373184147</v>
       </c>
       <c r="E6">
-        <v>1.048678509581391</v>
+        <v>1.081431381691098</v>
       </c>
       <c r="F6">
-        <v>1.05800994535861</v>
+        <v>1.090589627223857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054437995842504</v>
+        <v>1.047073260701551</v>
       </c>
       <c r="J6">
-        <v>1.057312437814475</v>
+        <v>1.082889635092002</v>
       </c>
       <c r="K6">
-        <v>1.060712336443764</v>
+        <v>1.079318957298889</v>
       </c>
       <c r="L6">
-        <v>1.057976718032701</v>
+        <v>1.083747944920359</v>
       </c>
       <c r="M6">
-        <v>1.067211934567286</v>
+        <v>1.092885791741685</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036817622891488</v>
+        <v>1.07813248578069</v>
       </c>
       <c r="D7">
-        <v>1.049438005237212</v>
+        <v>1.076575616202675</v>
       </c>
       <c r="E7">
-        <v>1.046487305620914</v>
+        <v>1.080964784661053</v>
       </c>
       <c r="F7">
-        <v>1.055752771885974</v>
+        <v>1.090108783901476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053723043007156</v>
+        <v>1.046955039593173</v>
       </c>
       <c r="J7">
-        <v>1.055318457023506</v>
+        <v>1.082469146682579</v>
       </c>
       <c r="K7">
-        <v>1.058971426241669</v>
+        <v>1.078960459510462</v>
       </c>
       <c r="L7">
-        <v>1.056052441775022</v>
+        <v>1.083339455577029</v>
       </c>
       <c r="M7">
-        <v>1.065219048242378</v>
+        <v>1.092462544350638</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025821508848942</v>
+        <v>1.075918434692867</v>
       </c>
       <c r="D8">
-        <v>1.040790787128369</v>
+        <v>1.074829880262403</v>
       </c>
       <c r="E8">
-        <v>1.037044159538347</v>
+        <v>1.079011454528688</v>
       </c>
       <c r="F8">
-        <v>1.046025822134163</v>
+        <v>1.088095890916566</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050609360111594</v>
+        <v>1.046456432520006</v>
       </c>
       <c r="J8">
-        <v>1.046706307851893</v>
+        <v>1.080707164773379</v>
       </c>
       <c r="K8">
-        <v>1.051445177848749</v>
+        <v>1.077457126699342</v>
       </c>
       <c r="L8">
-        <v>1.047744677146015</v>
+        <v>1.081627955129655</v>
       </c>
       <c r="M8">
-        <v>1.056616448735681</v>
+        <v>1.090689352983392</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004961182110093</v>
+        <v>1.072002585176691</v>
       </c>
       <c r="D9">
-        <v>1.024407832999931</v>
+        <v>1.071738989729478</v>
       </c>
       <c r="E9">
-        <v>1.019181506163675</v>
+        <v>1.075557440223386</v>
       </c>
       <c r="F9">
-        <v>1.027628558127369</v>
+        <v>1.084536847490895</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044595274101334</v>
+        <v>1.045560818173206</v>
       </c>
       <c r="J9">
-        <v>1.030339956465311</v>
+        <v>1.077585148644583</v>
       </c>
       <c r="K9">
-        <v>1.037116944216575</v>
+        <v>1.074789226581033</v>
       </c>
       <c r="L9">
-        <v>1.03197085790486</v>
+        <v>1.078596155686683</v>
       </c>
       <c r="M9">
-        <v>1.040288738953974</v>
+        <v>1.087548817532607</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9898452338278666</v>
+        <v>1.069381653465447</v>
       </c>
       <c r="D10">
-        <v>1.012562032934032</v>
+        <v>1.06966804516771</v>
       </c>
       <c r="E10">
-        <v>1.006282532773147</v>
+        <v>1.073246157110561</v>
       </c>
       <c r="F10">
-        <v>1.014345396423452</v>
+        <v>1.082155484694596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040169905469273</v>
+        <v>1.044952133548823</v>
       </c>
       <c r="J10">
-        <v>1.018467621890529</v>
+        <v>1.075491726565732</v>
       </c>
       <c r="K10">
-        <v>1.026708120677211</v>
+        <v>1.07299751269485</v>
       </c>
       <c r="L10">
-        <v>1.020539273141946</v>
+        <v>1.076563752887087</v>
       </c>
       <c r="M10">
-        <v>1.028460382454763</v>
+        <v>1.085443894222536</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9829559490914529</v>
+        <v>1.068244151090148</v>
       </c>
       <c r="D11">
-        <v>1.007172222040078</v>
+        <v>1.068768740526491</v>
       </c>
       <c r="E11">
-        <v>1.000416842266808</v>
+        <v>1.072243183490085</v>
       </c>
       <c r="F11">
-        <v>1.008305533586835</v>
+        <v>1.081122148797084</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038138502202155</v>
+        <v>1.044685773592075</v>
       </c>
       <c r="J11">
-        <v>1.013055381691771</v>
+        <v>1.074582268767458</v>
       </c>
       <c r="K11">
-        <v>1.021960136517414</v>
+        <v>1.072218469546641</v>
       </c>
       <c r="L11">
-        <v>1.015330901832354</v>
+        <v>1.075680930490795</v>
       </c>
       <c r="M11">
-        <v>1.023072501214443</v>
+        <v>1.08452966018626</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9803394851373588</v>
+        <v>1.067821225061397</v>
       </c>
       <c r="D12">
-        <v>1.00512689255482</v>
+        <v>1.068434302959435</v>
       </c>
       <c r="E12">
-        <v>0.9981913582465233</v>
+        <v>1.071870297480896</v>
       </c>
       <c r="F12">
-        <v>1.006014056570497</v>
+        <v>1.080737982049439</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037364975402232</v>
+        <v>1.044586412189103</v>
       </c>
       <c r="J12">
-        <v>1.010999866481944</v>
+        <v>1.074243995829714</v>
       </c>
       <c r="K12">
-        <v>1.020156524164854</v>
+        <v>1.071928605804063</v>
       </c>
       <c r="L12">
-        <v>1.013353291203395</v>
+        <v>1.075352583735223</v>
       </c>
       <c r="M12">
-        <v>1.021026936692512</v>
+        <v>1.084189644070813</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9809034296490159</v>
+        <v>1.067911962759787</v>
       </c>
       <c r="D13">
-        <v>1.00556765685246</v>
+        <v>1.068506059014197</v>
       </c>
       <c r="E13">
-        <v>0.9986709270878277</v>
+        <v>1.071950298213142</v>
       </c>
       <c r="F13">
-        <v>1.006507842039147</v>
+        <v>1.080820402670567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037531787690994</v>
+        <v>1.044607744765545</v>
       </c>
       <c r="J13">
-        <v>1.011442903380463</v>
+        <v>1.074316577496773</v>
       </c>
       <c r="K13">
-        <v>1.020545282826673</v>
+        <v>1.071990804986172</v>
       </c>
       <c r="L13">
-        <v>1.013779514746377</v>
+        <v>1.075423034718709</v>
       </c>
       <c r="M13">
-        <v>1.021467796406839</v>
+        <v>1.084262598250924</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9827408806806067</v>
+        <v>1.06820920027169</v>
       </c>
       <c r="D14">
-        <v>1.007004064510221</v>
+        <v>1.068741103941221</v>
       </c>
       <c r="E14">
-        <v>1.000233864901343</v>
+        <v>1.072212367551064</v>
       </c>
       <c r="F14">
-        <v>1.008117128470896</v>
+        <v>1.081090400447948</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038074959840912</v>
+        <v>1.044677569006027</v>
       </c>
       <c r="J14">
-        <v>1.012886421395059</v>
+        <v>1.074554316460791</v>
       </c>
       <c r="K14">
-        <v>1.021811889467234</v>
+        <v>1.072194519415774</v>
       </c>
       <c r="L14">
-        <v>1.015168335293123</v>
+        <v>1.075653798017288</v>
       </c>
       <c r="M14">
-        <v>1.022904344360462</v>
+        <v>1.084501563155276</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.983865189670447</v>
+        <v>1.068392283786813</v>
       </c>
       <c r="D15">
-        <v>1.007883207310029</v>
+        <v>1.068885870151445</v>
       </c>
       <c r="E15">
-        <v>1.001190504300888</v>
+        <v>1.072373792154339</v>
       </c>
       <c r="F15">
-        <v>1.009102148828933</v>
+        <v>1.08125670964143</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038407057772225</v>
+        <v>1.04472053380894</v>
       </c>
       <c r="J15">
-        <v>1.013769692420935</v>
+        <v>1.074700734043718</v>
       </c>
       <c r="K15">
-        <v>1.022586863362186</v>
+        <v>1.072319969083384</v>
       </c>
       <c r="L15">
-        <v>1.016018201361677</v>
+        <v>1.075795921998692</v>
       </c>
       <c r="M15">
-        <v>1.02378344395129</v>
+        <v>1.084648740188022</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9902947310979483</v>
+        <v>1.069457089398971</v>
       </c>
       <c r="D16">
-        <v>1.012913906253618</v>
+        <v>1.069727674068464</v>
       </c>
       <c r="E16">
-        <v>1.006665536966781</v>
+        <v>1.07331267449337</v>
       </c>
       <c r="F16">
-        <v>1.01473978506622</v>
+        <v>1.08222401673691</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040302159466654</v>
+        <v>1.044969751789146</v>
       </c>
       <c r="J16">
-        <v>1.018820736127814</v>
+        <v>1.075552020367406</v>
       </c>
       <c r="K16">
-        <v>1.027017841389463</v>
+        <v>1.073049146650224</v>
       </c>
       <c r="L16">
-        <v>1.020879149780182</v>
+        <v>1.076622283529604</v>
       </c>
       <c r="M16">
-        <v>1.028812000529284</v>
+        <v>1.085504509328318</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9942319000228128</v>
+        <v>1.070124302707439</v>
       </c>
       <c r="D17">
-        <v>1.015997031461439</v>
+        <v>1.070255020245219</v>
       </c>
       <c r="E17">
-        <v>1.010021797507112</v>
+        <v>1.073901021472305</v>
       </c>
       <c r="F17">
-        <v>1.018195868394636</v>
+        <v>1.082830189013911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041458966807892</v>
+        <v>1.045125328775188</v>
       </c>
       <c r="J17">
-        <v>1.021913556736302</v>
+        <v>1.076085201463149</v>
       </c>
       <c r="K17">
-        <v>1.029730270397352</v>
+        <v>1.073505672425775</v>
       </c>
       <c r="L17">
-        <v>1.023856360806864</v>
+        <v>1.077139887519965</v>
       </c>
       <c r="M17">
-        <v>1.031892206588996</v>
+        <v>1.086040557169958</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9964956308494181</v>
+        <v>1.070513224883639</v>
       </c>
       <c r="D18">
-        <v>1.01777054489171</v>
+        <v>1.070562364827341</v>
       </c>
       <c r="E18">
-        <v>1.011952741908295</v>
+        <v>1.074243985384741</v>
       </c>
       <c r="F18">
-        <v>1.020184292816047</v>
+        <v>1.083183548466898</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042122723867204</v>
+        <v>1.045215804709953</v>
       </c>
       <c r="J18">
-        <v>1.02369168589372</v>
+        <v>1.076395908968274</v>
       </c>
       <c r="K18">
-        <v>1.031289427193338</v>
+        <v>1.07377164617727</v>
       </c>
       <c r="L18">
-        <v>1.025568296439763</v>
+        <v>1.077441529742712</v>
       </c>
       <c r="M18">
-        <v>1.033663482890711</v>
+        <v>1.086352956449703</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9972621108144647</v>
+        <v>1.070645794936827</v>
       </c>
       <c r="D19">
-        <v>1.018371173764321</v>
+        <v>1.070667119685485</v>
       </c>
       <c r="E19">
-        <v>1.012606742479596</v>
+        <v>1.074360892094791</v>
       </c>
       <c r="F19">
-        <v>1.020857769691241</v>
+        <v>1.083303999514139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042347230554851</v>
+        <v>1.04524660905974</v>
       </c>
       <c r="J19">
-        <v>1.024293718111053</v>
+        <v>1.076501803656193</v>
       </c>
       <c r="K19">
-        <v>1.031817271861361</v>
+        <v>1.073862284034353</v>
       </c>
       <c r="L19">
-        <v>1.026147962452772</v>
+        <v>1.077544336878932</v>
       </c>
       <c r="M19">
-        <v>1.034263261255981</v>
+        <v>1.086459431312998</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9938129059173212</v>
+        <v>1.070052743200398</v>
       </c>
       <c r="D20">
-        <v>1.0156688368635</v>
+        <v>1.070198466661256</v>
       </c>
       <c r="E20">
-        <v>1.009664495723376</v>
+        <v>1.073837919095829</v>
       </c>
       <c r="F20">
-        <v>1.017827934454571</v>
+        <v>1.082765174324465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041336000230538</v>
+        <v>1.045108664736536</v>
       </c>
       <c r="J20">
-        <v>1.021584430831962</v>
+        <v>1.076028026041801</v>
       </c>
       <c r="K20">
-        <v>1.029441652680465</v>
+        <v>1.07345672365985</v>
       </c>
       <c r="L20">
-        <v>1.023539509007893</v>
+        <v>1.077084381242275</v>
       </c>
       <c r="M20">
-        <v>1.031564381179942</v>
+        <v>1.085983072139223</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9822014349643182</v>
+        <v>1.068121682574053</v>
       </c>
       <c r="D21">
-        <v>1.006582310711449</v>
+        <v>1.068671900069764</v>
       </c>
       <c r="E21">
-        <v>0.9997749483745416</v>
+        <v>1.07213520404931</v>
       </c>
       <c r="F21">
-        <v>1.007644600336514</v>
+        <v>1.081010902298604</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037915547613351</v>
+        <v>1.044657019224952</v>
       </c>
       <c r="J21">
-        <v>1.012462626853556</v>
+        <v>1.074484321037545</v>
       </c>
       <c r="K21">
-        <v>1.021440043114738</v>
+        <v>1.072134544258118</v>
       </c>
       <c r="L21">
-        <v>1.014760585682853</v>
+        <v>1.0755858558494</v>
       </c>
       <c r="M21">
-        <v>1.022482576478483</v>
+        <v>1.084431205866922</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9745647143132278</v>
+        <v>1.066905186755777</v>
       </c>
       <c r="D22">
-        <v>1.000616081578721</v>
+        <v>1.067709792487276</v>
       </c>
       <c r="E22">
-        <v>0.9932839504019089</v>
+        <v>1.071062684757617</v>
       </c>
       <c r="F22">
-        <v>1.000961303695765</v>
+        <v>1.079905950555697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035654175337149</v>
+        <v>1.044370600043725</v>
       </c>
       <c r="J22">
-        <v>1.006463353129265</v>
+        <v>1.073511066912109</v>
       </c>
       <c r="K22">
-        <v>1.0161753436445</v>
+        <v>1.071300384131476</v>
       </c>
       <c r="L22">
-        <v>1.008989638026257</v>
+        <v>1.074641196853811</v>
       </c>
       <c r="M22">
-        <v>1.016513740996064</v>
+        <v>1.083452999528733</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9786471332046962</v>
+        <v>1.067550302447521</v>
       </c>
       <c r="D23">
-        <v>1.003804461586729</v>
+        <v>1.068220044570811</v>
       </c>
       <c r="E23">
-        <v>0.9967525594443267</v>
+        <v>1.071631436350124</v>
       </c>
       <c r="F23">
-        <v>1.004532618994531</v>
+        <v>1.080491896850685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036864101027061</v>
+        <v>1.044522669830758</v>
       </c>
       <c r="J23">
-        <v>1.009670361520843</v>
+        <v>1.074027263451748</v>
       </c>
       <c r="K23">
-        <v>1.018989852547737</v>
+        <v>1.071742861624719</v>
       </c>
       <c r="L23">
-        <v>1.012074314205372</v>
+        <v>1.075142216495939</v>
       </c>
       <c r="M23">
-        <v>1.019704072163781</v>
+        <v>1.083971804252531</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.994002332107633</v>
+        <v>1.07008507864028</v>
       </c>
       <c r="D24">
-        <v>1.015817210272531</v>
+        <v>1.070224021556484</v>
       </c>
       <c r="E24">
-        <v>1.009826027209466</v>
+        <v>1.073866432989238</v>
       </c>
       <c r="F24">
-        <v>1.017994272447388</v>
+        <v>1.08279455231491</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041391597370206</v>
+        <v>1.045116195331064</v>
       </c>
       <c r="J24">
-        <v>1.021733228254825</v>
+        <v>1.07605386204363</v>
       </c>
       <c r="K24">
-        <v>1.029572137266711</v>
+        <v>1.073478842458202</v>
       </c>
       <c r="L24">
-        <v>1.023682756476577</v>
+        <v>1.077109462966353</v>
       </c>
       <c r="M24">
-        <v>1.031712589412054</v>
+        <v>1.08600904797951</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010549980793134</v>
+        <v>1.073016703076372</v>
       </c>
       <c r="D25">
-        <v>1.028793576793329</v>
+        <v>1.07253984795603</v>
       </c>
       <c r="E25">
-        <v>1.023960337280425</v>
+        <v>1.076451862814411</v>
       </c>
       <c r="F25">
-        <v>1.032550124845702</v>
+        <v>1.085458432361665</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046218395718873</v>
+        <v>1.04579438906082</v>
       </c>
       <c r="J25">
-        <v>1.034727438616054</v>
+        <v>1.078394354501357</v>
       </c>
       <c r="K25">
-        <v>1.040960767902672</v>
+        <v>1.075481220890121</v>
       </c>
       <c r="L25">
-        <v>1.036197747248728</v>
+        <v>1.079381886122286</v>
       </c>
       <c r="M25">
-        <v>1.044663314377734</v>
+        <v>1.088362663312961</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_82/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.075347494238984</v>
+        <v>1.022896818592953</v>
       </c>
       <c r="D2">
-        <v>1.074379477558459</v>
+        <v>1.038491900466583</v>
       </c>
       <c r="E2">
-        <v>1.078507792967301</v>
+        <v>1.034535610651111</v>
       </c>
       <c r="F2">
-        <v>1.087576891009373</v>
+        <v>1.043442017631605</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046326922860092</v>
+        <v>1.04977397582132</v>
       </c>
       <c r="J2">
-        <v>1.08025241187971</v>
+        <v>1.044413610928614</v>
       </c>
       <c r="K2">
-        <v>1.077068845344237</v>
+        <v>1.049439815026935</v>
       </c>
       <c r="L2">
-        <v>1.081186282913324</v>
+        <v>1.045533896514127</v>
       </c>
       <c r="M2">
-        <v>1.090231797435665</v>
+        <v>1.054327578293613</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.077035760507895</v>
+        <v>1.031437866986056</v>
       </c>
       <c r="D3">
-        <v>1.075711047986397</v>
+        <v>1.045206738441855</v>
       </c>
       <c r="E3">
-        <v>1.079997171536835</v>
+        <v>1.041865056340946</v>
       </c>
       <c r="F3">
-        <v>1.089111649988355</v>
+        <v>1.050991504934941</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046708783593401</v>
+        <v>1.052205315212396</v>
       </c>
       <c r="J3">
-        <v>1.081596655948687</v>
+        <v>1.051106708394793</v>
       </c>
       <c r="K3">
-        <v>1.078216266905026</v>
+        <v>1.055292106883698</v>
       </c>
       <c r="L3">
-        <v>1.082491921752738</v>
+        <v>1.051988886712435</v>
       </c>
       <c r="M3">
-        <v>1.09158443268365</v>
+        <v>1.061011004860698</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.078126363441433</v>
+        <v>1.036787946715082</v>
       </c>
       <c r="D4">
-        <v>1.076570790845502</v>
+        <v>1.049414661487301</v>
       </c>
       <c r="E4">
-        <v>1.080959382884948</v>
+        <v>1.046461796285731</v>
       </c>
       <c r="F4">
-        <v>1.090103217238502</v>
+        <v>1.055726494808598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046953668928188</v>
+        <v>1.053714702141128</v>
       </c>
       <c r="J4">
-        <v>1.082464277786314</v>
+        <v>1.055295233584613</v>
       </c>
       <c r="K4">
-        <v>1.078956307803066</v>
+        <v>1.05895114633566</v>
       </c>
       <c r="L4">
-        <v>1.08333472572961</v>
+        <v>1.056030031910315</v>
       </c>
       <c r="M4">
-        <v>1.092457643699516</v>
+        <v>1.065195840072902</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07858442836955</v>
+        <v>1.038997457536983</v>
       </c>
       <c r="D5">
-        <v>1.076931786110254</v>
+        <v>1.05115277250969</v>
       </c>
       <c r="E5">
-        <v>1.081363542114098</v>
+        <v>1.048361422738098</v>
       </c>
       <c r="F5">
-        <v>1.090519715901063</v>
+        <v>1.0576833094574</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047056093813832</v>
+        <v>1.054334722640384</v>
       </c>
       <c r="J5">
-        <v>1.082828509117821</v>
+        <v>1.057023998062256</v>
       </c>
       <c r="K5">
-        <v>1.079266849327885</v>
+        <v>1.060460546462507</v>
       </c>
       <c r="L5">
-        <v>1.083688562069232</v>
+        <v>1.057698343036334</v>
       </c>
       <c r="M5">
-        <v>1.092824262657341</v>
+        <v>1.066923626533548</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.078661314901922</v>
+        <v>1.039366189511999</v>
       </c>
       <c r="D6">
-        <v>1.076992373184147</v>
+        <v>1.051442849187946</v>
       </c>
       <c r="E6">
-        <v>1.081431381691098</v>
+        <v>1.048678509581392</v>
       </c>
       <c r="F6">
-        <v>1.090589627223857</v>
+        <v>1.05800994535861</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047073260701551</v>
+        <v>1.054437995842504</v>
       </c>
       <c r="J6">
-        <v>1.082889635092002</v>
+        <v>1.057312437814476</v>
       </c>
       <c r="K6">
-        <v>1.079318957298889</v>
+        <v>1.060712336443764</v>
       </c>
       <c r="L6">
-        <v>1.083747944920359</v>
+        <v>1.057976718032702</v>
       </c>
       <c r="M6">
-        <v>1.092885791741685</v>
+        <v>1.067211934567286</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07813248578069</v>
+        <v>1.036817622891488</v>
       </c>
       <c r="D7">
-        <v>1.076575616202675</v>
+        <v>1.049438005237211</v>
       </c>
       <c r="E7">
-        <v>1.080964784661053</v>
+        <v>1.046487305620914</v>
       </c>
       <c r="F7">
-        <v>1.090108783901476</v>
+        <v>1.055752771885974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046955039593173</v>
+        <v>1.053723043007155</v>
       </c>
       <c r="J7">
-        <v>1.082469146682579</v>
+        <v>1.055318457023505</v>
       </c>
       <c r="K7">
-        <v>1.078960459510462</v>
+        <v>1.058971426241668</v>
       </c>
       <c r="L7">
-        <v>1.083339455577029</v>
+        <v>1.056052441775021</v>
       </c>
       <c r="M7">
-        <v>1.092462544350638</v>
+        <v>1.065219048242377</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.075918434692867</v>
+        <v>1.025821508848943</v>
       </c>
       <c r="D8">
-        <v>1.074829880262403</v>
+        <v>1.04079078712837</v>
       </c>
       <c r="E8">
-        <v>1.079011454528688</v>
+        <v>1.037044159538347</v>
       </c>
       <c r="F8">
-        <v>1.088095890916566</v>
+        <v>1.046025822134163</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046456432520006</v>
+        <v>1.050609360111595</v>
       </c>
       <c r="J8">
-        <v>1.080707164773379</v>
+        <v>1.046706307851894</v>
       </c>
       <c r="K8">
-        <v>1.077457126699342</v>
+        <v>1.05144517784875</v>
       </c>
       <c r="L8">
-        <v>1.081627955129655</v>
+        <v>1.047744677146015</v>
       </c>
       <c r="M8">
-        <v>1.090689352983392</v>
+        <v>1.056616448735681</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072002585176691</v>
+        <v>1.004961182110092</v>
       </c>
       <c r="D9">
-        <v>1.071738989729478</v>
+        <v>1.02440783299993</v>
       </c>
       <c r="E9">
-        <v>1.075557440223386</v>
+        <v>1.019181506163674</v>
       </c>
       <c r="F9">
-        <v>1.084536847490895</v>
+        <v>1.027628558127369</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045560818173206</v>
+        <v>1.044595274101333</v>
       </c>
       <c r="J9">
-        <v>1.077585148644583</v>
+        <v>1.030339956465311</v>
       </c>
       <c r="K9">
-        <v>1.074789226581033</v>
+        <v>1.037116944216574</v>
       </c>
       <c r="L9">
-        <v>1.078596155686683</v>
+        <v>1.03197085790486</v>
       </c>
       <c r="M9">
-        <v>1.087548817532607</v>
+        <v>1.040288738953974</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069381653465447</v>
+        <v>0.9898452338278689</v>
       </c>
       <c r="D10">
-        <v>1.06966804516771</v>
+        <v>1.012562032934034</v>
       </c>
       <c r="E10">
-        <v>1.073246157110561</v>
+        <v>1.006282532773149</v>
       </c>
       <c r="F10">
-        <v>1.082155484694596</v>
+        <v>1.014345396423454</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044952133548823</v>
+        <v>1.040169905469274</v>
       </c>
       <c r="J10">
-        <v>1.075491726565732</v>
+        <v>1.018467621890532</v>
       </c>
       <c r="K10">
-        <v>1.07299751269485</v>
+        <v>1.026708120677213</v>
       </c>
       <c r="L10">
-        <v>1.076563752887087</v>
+        <v>1.020539273141947</v>
       </c>
       <c r="M10">
-        <v>1.085443894222536</v>
+        <v>1.028460382454765</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.068244151090148</v>
+        <v>0.9829559490914568</v>
       </c>
       <c r="D11">
-        <v>1.068768740526491</v>
+        <v>1.007172222040081</v>
       </c>
       <c r="E11">
-        <v>1.072243183490085</v>
+        <v>1.000416842266812</v>
       </c>
       <c r="F11">
-        <v>1.081122148797084</v>
+        <v>1.008305533586839</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044685773592075</v>
+        <v>1.038138502202156</v>
       </c>
       <c r="J11">
-        <v>1.074582268767458</v>
+        <v>1.013055381691775</v>
       </c>
       <c r="K11">
-        <v>1.072218469546641</v>
+        <v>1.021960136517417</v>
       </c>
       <c r="L11">
-        <v>1.075680930490795</v>
+        <v>1.015330901832357</v>
       </c>
       <c r="M11">
-        <v>1.08452966018626</v>
+        <v>1.023072501214447</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067821225061397</v>
+        <v>0.9803394851373604</v>
       </c>
       <c r="D12">
-        <v>1.068434302959435</v>
+        <v>1.005126892554822</v>
       </c>
       <c r="E12">
-        <v>1.071870297480896</v>
+        <v>0.9981913582465245</v>
       </c>
       <c r="F12">
-        <v>1.080737982049439</v>
+        <v>1.006014056570498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044586412189103</v>
+        <v>1.037364975402233</v>
       </c>
       <c r="J12">
-        <v>1.074243995829714</v>
+        <v>1.010999866481946</v>
       </c>
       <c r="K12">
-        <v>1.071928605804063</v>
+        <v>1.020156524164856</v>
       </c>
       <c r="L12">
-        <v>1.075352583735223</v>
+        <v>1.013353291203396</v>
       </c>
       <c r="M12">
-        <v>1.084189644070813</v>
+        <v>1.021026936692514</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.067911962759787</v>
+        <v>0.980903429649015</v>
       </c>
       <c r="D13">
-        <v>1.068506059014197</v>
+        <v>1.005567656852459</v>
       </c>
       <c r="E13">
-        <v>1.071950298213142</v>
+        <v>0.9986709270878269</v>
       </c>
       <c r="F13">
-        <v>1.080820402670567</v>
+        <v>1.006507842039146</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044607744765545</v>
+        <v>1.037531787690994</v>
       </c>
       <c r="J13">
-        <v>1.074316577496773</v>
+        <v>1.011442903380462</v>
       </c>
       <c r="K13">
-        <v>1.071990804986172</v>
+        <v>1.020545282826673</v>
       </c>
       <c r="L13">
-        <v>1.075423034718709</v>
+        <v>1.013779514746376</v>
       </c>
       <c r="M13">
-        <v>1.084262598250924</v>
+        <v>1.021467796406838</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06820920027169</v>
+        <v>0.9827408806806076</v>
       </c>
       <c r="D14">
-        <v>1.068741103941221</v>
+        <v>1.007004064510222</v>
       </c>
       <c r="E14">
-        <v>1.072212367551064</v>
+        <v>1.000233864901344</v>
       </c>
       <c r="F14">
-        <v>1.081090400447948</v>
+        <v>1.008117128470897</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044677569006027</v>
+        <v>1.038074959840912</v>
       </c>
       <c r="J14">
-        <v>1.074554316460791</v>
+        <v>1.01288642139506</v>
       </c>
       <c r="K14">
-        <v>1.072194519415774</v>
+        <v>1.021811889467235</v>
       </c>
       <c r="L14">
-        <v>1.075653798017288</v>
+        <v>1.015168335293124</v>
       </c>
       <c r="M14">
-        <v>1.084501563155276</v>
+        <v>1.022904344360463</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068392283786813</v>
+        <v>0.9838651896704438</v>
       </c>
       <c r="D15">
-        <v>1.068885870151445</v>
+        <v>1.007883207310027</v>
       </c>
       <c r="E15">
-        <v>1.072373792154339</v>
+        <v>1.001190504300884</v>
       </c>
       <c r="F15">
-        <v>1.08125670964143</v>
+        <v>1.00910214882893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04472053380894</v>
+        <v>1.038407057772224</v>
       </c>
       <c r="J15">
-        <v>1.074700734043718</v>
+        <v>1.013769692420931</v>
       </c>
       <c r="K15">
-        <v>1.072319969083384</v>
+        <v>1.022586863362183</v>
       </c>
       <c r="L15">
-        <v>1.075795921998692</v>
+        <v>1.016018201361674</v>
       </c>
       <c r="M15">
-        <v>1.084648740188022</v>
+        <v>1.023783443951287</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069457089398971</v>
+        <v>0.9902947310979467</v>
       </c>
       <c r="D16">
-        <v>1.069727674068464</v>
+        <v>1.012913906253617</v>
       </c>
       <c r="E16">
-        <v>1.07331267449337</v>
+        <v>1.00666553696678</v>
       </c>
       <c r="F16">
-        <v>1.08222401673691</v>
+        <v>1.014739785066219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044969751789146</v>
+        <v>1.040302159466654</v>
       </c>
       <c r="J16">
-        <v>1.075552020367406</v>
+        <v>1.018820736127813</v>
       </c>
       <c r="K16">
-        <v>1.073049146650224</v>
+        <v>1.027017841389462</v>
       </c>
       <c r="L16">
-        <v>1.076622283529604</v>
+        <v>1.020879149780181</v>
       </c>
       <c r="M16">
-        <v>1.085504509328318</v>
+        <v>1.028812000529283</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070124302707439</v>
+        <v>0.9942319000228134</v>
       </c>
       <c r="D17">
-        <v>1.070255020245219</v>
+        <v>1.01599703146144</v>
       </c>
       <c r="E17">
-        <v>1.073901021472305</v>
+        <v>1.010021797507112</v>
       </c>
       <c r="F17">
-        <v>1.082830189013911</v>
+        <v>1.018195868394637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045125328775188</v>
+        <v>1.041458966807893</v>
       </c>
       <c r="J17">
-        <v>1.076085201463149</v>
+        <v>1.021913556736303</v>
       </c>
       <c r="K17">
-        <v>1.073505672425775</v>
+        <v>1.029730270397353</v>
       </c>
       <c r="L17">
-        <v>1.077139887519965</v>
+        <v>1.023856360806865</v>
       </c>
       <c r="M17">
-        <v>1.086040557169958</v>
+        <v>1.031892206588997</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070513224883639</v>
+        <v>0.9964956308494175</v>
       </c>
       <c r="D18">
-        <v>1.070562364827341</v>
+        <v>1.01777054489171</v>
       </c>
       <c r="E18">
-        <v>1.074243985384741</v>
+        <v>1.011952741908295</v>
       </c>
       <c r="F18">
-        <v>1.083183548466898</v>
+        <v>1.020184292816047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045215804709953</v>
+        <v>1.042122723867204</v>
       </c>
       <c r="J18">
-        <v>1.076395908968274</v>
+        <v>1.023691685893719</v>
       </c>
       <c r="K18">
-        <v>1.07377164617727</v>
+        <v>1.031289427193338</v>
       </c>
       <c r="L18">
-        <v>1.077441529742712</v>
+        <v>1.025568296439762</v>
       </c>
       <c r="M18">
-        <v>1.086352956449703</v>
+        <v>1.033663482890711</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070645794936827</v>
+        <v>0.9972621108144627</v>
       </c>
       <c r="D19">
-        <v>1.070667119685485</v>
+        <v>1.01837117376432</v>
       </c>
       <c r="E19">
-        <v>1.074360892094791</v>
+        <v>1.012606742479595</v>
       </c>
       <c r="F19">
-        <v>1.083303999514139</v>
+        <v>1.02085776969124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04524660905974</v>
+        <v>1.04234723055485</v>
       </c>
       <c r="J19">
-        <v>1.076501803656193</v>
+        <v>1.024293718111051</v>
       </c>
       <c r="K19">
-        <v>1.073862284034353</v>
+        <v>1.031817271861359</v>
       </c>
       <c r="L19">
-        <v>1.077544336878932</v>
+        <v>1.02614796245277</v>
       </c>
       <c r="M19">
-        <v>1.086459431312998</v>
+        <v>1.034263261255979</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.070052743200398</v>
+        <v>0.9938129059173203</v>
       </c>
       <c r="D20">
-        <v>1.070198466661256</v>
+        <v>1.015668836863499</v>
       </c>
       <c r="E20">
-        <v>1.073837919095829</v>
+        <v>1.009664495723375</v>
       </c>
       <c r="F20">
-        <v>1.082765174324465</v>
+        <v>1.01782793445457</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045108664736536</v>
+        <v>1.041336000230538</v>
       </c>
       <c r="J20">
-        <v>1.076028026041801</v>
+        <v>1.021584430831961</v>
       </c>
       <c r="K20">
-        <v>1.07345672365985</v>
+        <v>1.029441652680464</v>
       </c>
       <c r="L20">
-        <v>1.077084381242275</v>
+        <v>1.023539509007891</v>
       </c>
       <c r="M20">
-        <v>1.085983072139223</v>
+        <v>1.031564381179941</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.068121682574053</v>
+        <v>0.9822014349643166</v>
       </c>
       <c r="D21">
-        <v>1.068671900069764</v>
+        <v>1.006582310711448</v>
       </c>
       <c r="E21">
-        <v>1.07213520404931</v>
+        <v>0.9997749483745401</v>
       </c>
       <c r="F21">
-        <v>1.081010902298604</v>
+        <v>1.007644600336513</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044657019224952</v>
+        <v>1.03791554761335</v>
       </c>
       <c r="J21">
-        <v>1.074484321037545</v>
+        <v>1.012462626853554</v>
       </c>
       <c r="K21">
-        <v>1.072134544258118</v>
+        <v>1.021440043114737</v>
       </c>
       <c r="L21">
-        <v>1.0755858558494</v>
+        <v>1.014760585682852</v>
       </c>
       <c r="M21">
-        <v>1.084431205866922</v>
+        <v>1.022482576478482</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066905186755777</v>
+        <v>0.9745647143132281</v>
       </c>
       <c r="D22">
-        <v>1.067709792487276</v>
+        <v>1.000616081578722</v>
       </c>
       <c r="E22">
-        <v>1.071062684757617</v>
+        <v>0.9932839504019086</v>
       </c>
       <c r="F22">
-        <v>1.079905950555697</v>
+        <v>1.000961303695766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044370600043725</v>
+        <v>1.035654175337149</v>
       </c>
       <c r="J22">
-        <v>1.073511066912109</v>
+        <v>1.006463353129266</v>
       </c>
       <c r="K22">
-        <v>1.071300384131476</v>
+        <v>1.0161753436445</v>
       </c>
       <c r="L22">
-        <v>1.074641196853811</v>
+        <v>1.008989638026257</v>
       </c>
       <c r="M22">
-        <v>1.083452999528733</v>
+        <v>1.016513740996064</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.067550302447521</v>
+        <v>0.9786471332046979</v>
       </c>
       <c r="D23">
-        <v>1.068220044570811</v>
+        <v>1.003804461586731</v>
       </c>
       <c r="E23">
-        <v>1.071631436350124</v>
+        <v>0.9967525594443284</v>
       </c>
       <c r="F23">
-        <v>1.080491896850685</v>
+        <v>1.004532618994533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044522669830758</v>
+        <v>1.036864101027061</v>
       </c>
       <c r="J23">
-        <v>1.074027263451748</v>
+        <v>1.009670361520845</v>
       </c>
       <c r="K23">
-        <v>1.071742861624719</v>
+        <v>1.018989852547738</v>
       </c>
       <c r="L23">
-        <v>1.075142216495939</v>
+        <v>1.012074314205374</v>
       </c>
       <c r="M23">
-        <v>1.083971804252531</v>
+        <v>1.019704072163782</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.07008507864028</v>
+        <v>0.994002332107633</v>
       </c>
       <c r="D24">
-        <v>1.070224021556484</v>
+        <v>1.01581721027253</v>
       </c>
       <c r="E24">
-        <v>1.073866432989238</v>
+        <v>1.009826027209466</v>
       </c>
       <c r="F24">
-        <v>1.08279455231491</v>
+        <v>1.017994272447388</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045116195331064</v>
+        <v>1.041391597370206</v>
       </c>
       <c r="J24">
-        <v>1.07605386204363</v>
+        <v>1.021733228254825</v>
       </c>
       <c r="K24">
-        <v>1.073478842458202</v>
+        <v>1.029572137266711</v>
       </c>
       <c r="L24">
-        <v>1.077109462966353</v>
+        <v>1.023682756476577</v>
       </c>
       <c r="M24">
-        <v>1.08600904797951</v>
+        <v>1.031712589412053</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.073016703076372</v>
+        <v>1.010549980793136</v>
       </c>
       <c r="D25">
-        <v>1.07253984795603</v>
+        <v>1.02879357679333</v>
       </c>
       <c r="E25">
-        <v>1.076451862814411</v>
+        <v>1.023960337280426</v>
       </c>
       <c r="F25">
-        <v>1.085458432361665</v>
+        <v>1.032550124845703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04579438906082</v>
+        <v>1.046218395718874</v>
       </c>
       <c r="J25">
-        <v>1.078394354501357</v>
+        <v>1.034727438616056</v>
       </c>
       <c r="K25">
-        <v>1.075481220890121</v>
+        <v>1.040960767902674</v>
       </c>
       <c r="L25">
-        <v>1.079381886122286</v>
+        <v>1.036197747248729</v>
       </c>
       <c r="M25">
-        <v>1.088362663312961</v>
+        <v>1.044663314377735</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
